--- a/similarities/split_global/harmonic_similarity_timestamps_133.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_133.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,714 +484,730 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
+          <t>isophonics_57</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:49.340000', '0:01:01.680000')]</t>
+          <t>('0:00:56.720000', '0:00:58.880000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:03.020000')]</t>
+          <t>('0:00:04.155032', '0:00:07.525011')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=49.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=0.36']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-57#t=4.155032</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>schubert-winterreise_58</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>schubert-winterreise_194</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>['A:min', 'E:7/G#', 'A:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min'], ['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['C:min', 'G:7/D', 'C:min/D#']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:05.260000'), ('0:00:08.200000', '0:00:12.660000')]</t>
+          <t>('0:00:37.960000', '0:00:44.800000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:13.180000', '0:00:19.520000'), ('0:00:00.300000', '0:00:02.820000')]</t>
+          <t>('0:00:02', '0:00:04.320000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=8.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-58#t=37.96</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=13.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=0.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=2.0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_124</t>
+          <t>jaah_36</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_219</t>
+          <t>jaah_54</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C', 'F:min/C', 'C']]</t>
+          <t>['D:7', 'G', 'C:7', 'G']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A', 'D:min', 'A']]</t>
+          <t>['Bb:7', 'Eb', 'Ab:7', 'Eb']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:49.480000', '0:00:53.580000')]</t>
+          <t>('0:00:43.320000', '0:00:50.490000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:15.058526', '0:01:45.418616')]</t>
+          <t>('0:00:40.370000', '0:00:56.680000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=49.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-36#t=43.32</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-219#t=75.058526']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=40.37</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:2EqlS6tkEnglzr7tkKAAYD</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>schubert-winterreise_150</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>schubert-winterreise_175</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min/A'], ['D:min', 'A:7/E', 'D:min'], ['D:maj/A', 'A:7', 'D:min']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:min', 'C:7', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C']]</t>
+          <t>['A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:28.960000', '0:00:49.060000'), ('0:00:01.920000', '0:00:08.320000'), ('0:00:56.780000', '0:01:05.580000')]</t>
+          <t>('0:02:20.480000', '0:02:25.980000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:34.560000', '0:00:36.420000'), ('0:00:08.300000', '0:00:12.960000'), ('0:00:34.340000', '0:00:35.880000')]</t>
+          <t>('0:00:17.120000', '0:00:24.900000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=28.96', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=1.92', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=56.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=140.48</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=34.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=8.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=34.34']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=17.12</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>['A/3', 'D', 'A']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:40.120000', '0:00:47.880000')]</t>
+          <t>('0:00:21.580000', '0:00:29.340000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:07.700000', '0:00:12.060000')]</t>
+          <t>('0:00:04.250000', '0:00:09.179000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-62#t=40.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=21.58</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=7.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['B', 'E/5', 'B']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:55.629773', '0:01:07.541609')]</t>
+          <t>('0:00:58.320000', '0:00:59.680000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:21.580000', '0:00:29.340000')]</t>
+          <t>('0:00:00.400000', '0:00:09.040000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-81#t=55.629773']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.32</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=21.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=0.4</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min'], ['D:min', 'A:7', 'D:min', 'D:min/A', 'A:7']]</t>
+          <t>['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min'], ['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7']]</t>
+          <t>['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:45.220000', '0:02:02.720000'), ('0:00:14.220000', '0:00:46.760000')]</t>
+          <t>('0:00:31.910000', '0:00:44.110000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:32.220000', '0:00:43.900000'), ('0:00:38.120000', '0:00:47.080000')]</t>
+          <t>('0:00:25.720000', '0:00:51.960000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=105.22', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=14.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=31.91</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=32.22', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=38.12']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=25.72</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>schubert-winterreise_75</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db/5', 'Ab']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:55.580000', '0:01:02.320000')]</t>
+          <t>('0:00:11.820000', '0:00:18.540000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:00.243000', '0:00:09.120000')]</t>
+          <t>('0:00:45.720000', '0:00:49.900000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=11.82</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=45.72</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>schubert-winterreise_19</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C', 'G/3', 'C', 'G/3', 'C', 'G/3']]</t>
+          <t>['A:7', 'D:min', 'D:min/A']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj']]</t>
+          <t>['C:7', 'F:min/C', 'F:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:02:10.148000', '0:02:12.444000')]</t>
+          <t>('0:00:22.680000', '0:00:41.840000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:11.860000', '0:00:15.880000')]</t>
+          <t>('0:00:35.820000', '0:00:37.760000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=130.148']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=22.68</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=11.86']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=35.82</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>isophonics_48</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G/3']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['A', 'E', 'A']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:22.020589', '0:00:24.598004')]</t>
+          <t>('0:00:40.960000', '0:00:43.300000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
+          <t>('0:01:28.583470', '0:01:38.974002')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=22.020589']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=40.96</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=88.58347</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
+          <t>isophonics_225</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['D:maj', 'D:7/C', 'D#:maj/A#']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb', 'Bb']]</t>
+          <t>['E', 'E:7', 'F']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:57.480000', '0:01:04.580000')]</t>
+          <t>('0:00:53.460000', '0:00:59.700000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:00.761383', '0:01:09.294716')]</t>
+          <t>('0:00:53.673000', '0:01:00.522000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=53.46</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-181#t=60.761383']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-225#t=53.673</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_167</t>
+          <t>jaah_54</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G/5', 'C/9', 'G']]</t>
+          <t>['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:00.727609', '0:00:08.204625')]</t>
+          <t>('0:00:22.370000', '0:00:47.630000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:05.200000', '0:01:07.500000')]</t>
+          <t>('0:00:31.910000', '0:00:40.720000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-167#t=0.727609']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=22.37</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=31.91</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A/3', 'D', 'A']]</t>
+          <t>['A', 'D/5', 'A', 'E/4']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:09.360000', '0:01:13.200000')]</t>
+          <t>('0:00:52.740000', '0:01:04.440000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:04.250000', '0:00:09.179000')]</t>
+          <t>('0:00:17.913000', '0:00:26.611000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=17.913</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>jaah_16</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>jaah_26</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['B:min7', 'E:7', 'A:maj6']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['A:min7', 'D:7', 'G:maj6']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:16.040000', '0:00:18.720000')]</t>
+          <t>('0:00:20.300000', '0:00:23.100000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:18.800000', '0:00:21.340000')]</t>
+          <t>('0:00:23.940000', '0:00:28.130000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=16.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-16#t=20.3</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=18.8']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-26#t=23.94</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_70</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D', 'G:min', 'D']]</t>
+          <t>['E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['B:maj/F#', 'E:min/G', 'B:maj/F#']]</t>
+          <t>['A#', 'A#/F', 'F:7', 'A#']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:02:04.737522', '0:02:11.471309')]</t>
+          <t>('0:03:47.460000', '0:04:01.440000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:12.880000', '0:01:14.720000')]</t>
+          <t>('0:04:29.700000', '0:04:38.420000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=124.737522']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=227.46</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=72.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=269.7</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
